--- a/Interview-Preperation/DSA/Dsa pattern.xlsx
+++ b/Interview-Preperation/DSA/Dsa pattern.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAIVISHWA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Interview-Preperation\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC51AA9-7565-4BA0-B6C8-3FEBE466369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73400A5B-48BF-45B9-AC6D-59D22C696914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{58C5D8F9-012E-49E2-B285-92C1EA046F74}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>Dsa Pattern recognition Sheet</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Valid Anagram</t>
-  </si>
-  <si>
-    <t>Get String byte and compare it</t>
   </si>
   <si>
     <t>String Methods</t>
@@ -143,9 +140,6 @@
     <t>Valid Palindrome</t>
   </si>
   <si>
-    <t>Need to use Two pointer start end check</t>
-  </si>
-  <si>
     <t>Two Pointer</t>
   </si>
   <si>
@@ -298,13 +292,76 @@
   </si>
   <si>
     <t>GCD - used to find the smallest count</t>
+  </si>
+  <si>
+    <t>Find the first largest</t>
+  </si>
+  <si>
+    <t>Sort and return first element</t>
+  </si>
+  <si>
+    <t>Array + sort</t>
+  </si>
+  <si>
+    <t>Get and put two pointer [Back carrier]</t>
+  </si>
+  <si>
+    <t>Take value at back</t>
+  </si>
+  <si>
+    <t>Check element is sorted</t>
+  </si>
+  <si>
+    <t>start index from one compare arr[i-1] &gt;arr[i]</t>
+  </si>
+  <si>
+    <t>Two Index approach</t>
+  </si>
+  <si>
+    <t>Start I,j = 0 if arr[i] == arr[j] j ++; else i++; swap;</t>
+  </si>
+  <si>
+    <t>Two index approach</t>
+  </si>
+  <si>
+    <t>Second Largest [Max Integer]</t>
+  </si>
+  <si>
+    <t>Left Rotate array by one place</t>
+  </si>
+  <si>
+    <t>Take First element shift all to left then put that into last</t>
+  </si>
+  <si>
+    <t>Remove Duplicates (One c one g)</t>
+  </si>
+  <si>
+    <t>Move Zeros to last</t>
+  </si>
+  <si>
+    <t>For Loop I if not zero swap with j and j ++</t>
+  </si>
+  <si>
+    <t>Find missing element</t>
+  </si>
+  <si>
+    <t>Subsequent Count array to maintain count then return missing</t>
+  </si>
+  <si>
+    <t>Subsequent approach</t>
+  </si>
+  <si>
+    <t>Using Hashtable method</t>
+  </si>
+  <si>
+    <t>(Important Alpha-Numberic (replace all)Need to use Two pointer start end checkI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +400,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -376,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,14 +767,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387F180D-EF2D-4FD1-AC60-AE9A5AE17BFC}">
   <dimension ref="E5:AD244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R9" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="9" max="9" width="30.46484375" customWidth="1"/>
-    <col min="14" max="14" width="21.59765625" customWidth="1"/>
+    <col min="14" max="14" width="35.9296875" customWidth="1"/>
     <col min="29" max="29" width="33.59765625" customWidth="1"/>
     <col min="30" max="30" width="31.73046875" customWidth="1"/>
   </cols>
@@ -722,7 +786,7 @@
     </row>
     <row r="6" spans="5:29" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="5:29" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -732,7 +796,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -799,14 +863,14 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -820,25 +884,25 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="AC14" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="5:29" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -848,25 +912,25 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="AC15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="5:29" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -874,16 +938,16 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="AC16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -891,16 +955,16 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="AC17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="6:30" ht="29.25" x14ac:dyDescent="0.55000000000000004">
@@ -908,19 +972,19 @@
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="AC18" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD18" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -928,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -936,939 +1000,177 @@
         <v>9</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="2">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="24" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>95</v>
+      </c>
       <c r="J24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>90</v>
+      </c>
       <c r="O24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>14</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>93</v>
+      </c>
       <c r="J25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>94</v>
+      </c>
       <c r="O25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="2">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>15</v>
+      </c>
       <c r="H26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="2">
-        <v>4</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>16</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="2"/>
+        <v>98</v>
+      </c>
       <c r="J27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>99</v>
+      </c>
       <c r="O27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="6:30" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F33" s="2">
-        <v>3</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F34" s="2">
-        <v>4</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F35" s="2">
-        <v>5</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F36" s="2">
-        <v>6</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F37" s="2">
-        <v>7</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F41" s="2">
-        <v>2</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F42" s="2">
-        <v>3</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
         <v>69</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E51" s="5"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-    </row>
-    <row r="52" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E52" s="5"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-    </row>
-    <row r="53" spans="5:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-    </row>
-    <row r="54" spans="5:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-    </row>
-    <row r="55" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-    </row>
-    <row r="57" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-    </row>
-    <row r="59" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E59" s="2"/>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="2"/>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-    </row>
-    <row r="61" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-    </row>
-    <row r="62" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-    </row>
-    <row r="63" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-    </row>
-    <row r="64" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="64" spans="5:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E71" s="2"/>
@@ -2056,7 +1358,9 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="J80" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -2064,57 +1368,62 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-    </row>
-    <row r="81" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="J81" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-    </row>
-    <row r="82" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="H82" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-    </row>
-    <row r="83" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2">
+        <v>3</v>
+      </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -2124,37 +1433,39 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-    </row>
-    <row r="84" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2">
+        <v>4</v>
+      </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-    </row>
-    <row r="85" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2">
+        <v>5</v>
+      </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="H85" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -2164,13 +1475,8 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-    </row>
-    <row r="86" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2184,19 +1490,16 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-    </row>
-    <row r="87" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
+      <c r="J87" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -2204,117 +1507,131 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-    </row>
-    <row r="88" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="88" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="O88" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-    </row>
-    <row r="89" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2">
+        <v>2</v>
+      </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+      <c r="O89" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-    </row>
-    <row r="90" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2">
+        <v>3</v>
+      </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+      <c r="O90" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-    </row>
-    <row r="91" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2">
+        <v>4</v>
+      </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="H91" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="O91" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-    </row>
-    <row r="92" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2">
+        <v>5</v>
+      </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="H92" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+      <c r="O92" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-    </row>
-    <row r="93" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="93" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2">
+        <v>6</v>
+      </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="H93" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -2324,17 +1641,16 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-    </row>
-    <row r="94" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="94" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2">
+        <v>7</v>
+      </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="H94" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -2344,13 +1660,8 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-    </row>
-    <row r="95" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="95" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -2364,19 +1675,16 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-    </row>
-    <row r="96" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="96" spans="5:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="J96" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -2384,77 +1692,85 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="O97" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
     </row>
     <row r="98" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2">
+        <v>2</v>
+      </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="O98" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="F99" s="2">
+        <v>3</v>
+      </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="O99" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
     </row>
     <row r="100" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <v>4</v>
+      </c>
       <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -2464,11 +1780,6 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
     </row>
     <row r="101" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E101" s="2"/>
@@ -2484,11 +1795,6 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" s="2"/>
@@ -2504,18 +1810,15 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
     </row>
     <row r="103" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+      <c r="I103" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -2524,11 +1827,6 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E104" s="2"/>
@@ -2544,11 +1842,6 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
     </row>
     <row r="105" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E105" s="2"/>
@@ -2564,11 +1857,6 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
     </row>
     <row r="106" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E106" s="2"/>
@@ -2584,11 +1872,6 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
     </row>
     <row r="107" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E107" s="2"/>
@@ -2604,11 +1887,6 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
     </row>
     <row r="108" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E108" s="2"/>
@@ -2624,11 +1902,11 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
     </row>
     <row r="109" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E109" s="2"/>
@@ -2644,51 +1922,51 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
     </row>
     <row r="110" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
     </row>
     <row r="111" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
     </row>
     <row r="112" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E112" s="2"/>
@@ -2756,7 +2034,9 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="J115" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -2772,16 +2052,24 @@
     </row>
     <row r="116" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="H116" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="O116" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
@@ -2792,9 +2080,13 @@
     </row>
     <row r="117" spans="5:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2">
+        <v>2</v>
+      </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="H117" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
